--- a/Additional_Files/Supplemental_Table_2.xlsx
+++ b/Additional_Files/Supplemental_Table_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HHD/Documents/GitHub/paper-OysterSeed-TimeXTemp/SupplementalFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HHD/Documents/GitHub/paper-OysterSeed-TimeXTemp/Additional_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC9C885-5834-844A-8E5A-0F13A7DA9DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A957D4E1-7D6D-494C-A324-17B780B47C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="460" windowWidth="21060" windowHeight="11020" xr2:uid="{E4D4141F-9E7A-AF49-93CF-6C29E7FAD514}"/>
   </bookViews>
@@ -204,9 +204,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14191426071741031"/>
+          <c:x val="0.22458163799746686"/>
           <c:y val="0.13425925925925927"/>
-          <c:w val="0.82753018372703413"/>
+          <c:w val="0.74486265509149352"/>
           <c:h val="0.69873432487605724"/>
         </c:manualLayout>
       </c:layout>
@@ -493,20 +493,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Days Post-fertilization</a:t>
                 </a:r>
               </a:p>
@@ -525,16 +525,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -563,16 +563,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -613,20 +613,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Number of Detected Proteins</a:t>
                 </a:r>
               </a:p>
@@ -636,8 +636,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6097112860892389E-2"/>
-              <c:y val="0.14367271799358414"/>
+              <c:x val="6.5589250375207145E-2"/>
+              <c:y val="8.4276506435013693E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -653,16 +653,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -685,16 +685,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -739,16 +739,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -786,7 +786,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1355,9 +1358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1684,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE76AD-3FF5-BB4E-94DC-91D3CCBB3FEE}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
